--- a/25NKUMCM-C/附件二：单变量预测.xlsx
+++ b/25NKUMCM-C/附件二：单变量预测.xlsx
@@ -451,8 +451,10 @@
           <t>20250321</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>35.7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>35.7</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -461,8 +463,10 @@
           <t>20250331</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>36.8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>36.8</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -471,8 +475,10 @@
           <t>20250410</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>38.9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>38.9</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -481,8 +487,10 @@
           <t>20250420</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>42.3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -491,8 +499,10 @@
           <t>20250430</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>47.9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>47.9</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -501,8 +511,10 @@
           <t>20250510</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>55.8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>55.8</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -511,8 +523,10 @@
           <t>20250520</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>65.59999999999999</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>65.6</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -521,8 +535,10 @@
           <t>20250530</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>75.59999999999999</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>75.6</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -531,8 +547,10 @@
           <t>20250609</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>84.2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>84.2</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -541,8 +559,10 @@
           <t>20250619</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>90.5</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>90.5</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -551,8 +571,10 @@
           <t>20260321</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>36</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -561,8 +583,10 @@
           <t>20260331</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>36.8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>36.8</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -571,8 +595,10 @@
           <t>20260410</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>38.1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -581,8 +607,10 @@
           <t>20260420</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>40.4</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>40.4</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -591,8 +619,10 @@
           <t>20260430</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>44</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -601,8 +631,10 @@
           <t>20260510</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>49.6</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -611,8 +643,10 @@
           <t>20260520</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>57.1</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>57.1</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -621,8 +655,10 @@
           <t>20260530</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>66.2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>66.2</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -631,8 +667,10 @@
           <t>20260609</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>75.40000000000001</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>75.4</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -641,8 +679,10 @@
           <t>20260619</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>83.5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>83.5</t>
+        </is>
       </c>
     </row>
   </sheetData>
